--- a/data/models.xlsx
+++ b/data/models.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,27 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>model</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>price</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>apikey</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
           <t>module</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>classname</t>
         </is>
       </c>
     </row>
@@ -496,32 +476,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ChatCompletion-v2</t>
+          <t>abab6.5s-chat</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>abab6.5s-chat</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>免费</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
           <t>minimax</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>minimax</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>MiniMax</t>
         </is>
       </c>
     </row>
@@ -546,27 +506,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>moonshot-v1-8k</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>付费</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
           <t>moonshot</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>moonshot</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>MoonShot</t>
         </is>
       </c>
     </row>
@@ -586,32 +526,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>通义千问-Max</t>
+          <t>qwen-max</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>qwen-max</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>计费</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
           <t>bailian</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>bailian</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>BaiLian</t>
         </is>
       </c>
     </row>
@@ -631,32 +551,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>通义千问-Plus</t>
+          <t>qwen-plus</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>qwen-plus</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>计费</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
           <t>bailian</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>bailian</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>BaiLian</t>
         </is>
       </c>
     </row>
@@ -676,32 +576,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>通义千问-Turbo</t>
+          <t>qwen-turbo</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>qwen-turbo</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>计费</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
           <t>bailian</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>bailian</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>BaiLian</t>
         </is>
       </c>
     </row>
@@ -726,27 +606,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Baichuan4</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>付费</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
           <t>baichuan</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>baichuan</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>BaiChuan</t>
         </is>
       </c>
     </row>
@@ -771,27 +631,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ERNIE-Speed-128K</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>免费</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
           <t>baidu</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>baidu</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>QianFan</t>
         </is>
       </c>
     </row>
@@ -811,32 +651,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doubao-pro-4k</t>
+          <t>doubao-pro-4k</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>doubao-pro-4k</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>免费</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
           <t>arkengine</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>arkengine</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>ArkEngine</t>
         </is>
       </c>
     </row>
@@ -861,27 +681,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>yi-medium</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>付费</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
           <t>lingyi</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>lingyi</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>LingYi</t>
         </is>
       </c>
     </row>
@@ -906,27 +706,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>SenseChat</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>付费</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
           <t>shangtang</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>shangtang</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>ShangTang</t>
         </is>
       </c>
     </row>
@@ -951,33 +731,13 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>hunyuan-lite</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>免费</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
           <t>tencent</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>tencent</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>HunYuan</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -996,33 +756,13 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>xingchen-lite</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>收费</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
           <t>xingchen</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>xingchen</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>XingChen</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1041,33 +781,13 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>xingchen-base</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>收费</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
           <t>xingchen</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>xingchen</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>XingChen</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1086,33 +806,13 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>xingchen-max</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>收费</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
           <t>xingchen</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>xingchen</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>XingChen</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1131,27 +831,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>xingchen-plus</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>收费</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
           <t>xingchen</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>xingchen</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>XingChen</t>
         </is>
       </c>
     </row>
@@ -1176,33 +856,13 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Spark4.0 Ultra</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>付费</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
           <t>xunfei</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>xunfei</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>XingHuo</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1216,32 +876,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>GLM-4-Flash</t>
+          <t>glm-4-flash</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>glm-4-flash</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>免费</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
           <t>zhipu</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>zhipu</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>ZhiPu</t>
         </is>
       </c>
     </row>
@@ -1261,32 +901,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>GLM-4-AirX</t>
+          <t>glm-4-airx</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>glm-4-airx</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>付费</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
           <t>zhipu</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>zhipu</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>ZhiPu</t>
         </is>
       </c>
     </row>
@@ -1306,32 +926,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>GLM-4-Plus</t>
+          <t>glm-4-plus</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>glm-4-plus</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>付费</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
           <t>zhipu</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>zhipu</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>ZhiPu</t>
         </is>
       </c>
     </row>
@@ -1351,32 +951,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>GLM-4-Air</t>
+          <t>glm-4-air</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>glm-4-air</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>付费</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
           <t>zhipu</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>zhipu</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>ZhiPu</t>
         </is>
       </c>
     </row>
@@ -1396,32 +976,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>GLM-4-0520</t>
+          <t>glm-4-0520</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>glm-4-0520</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>付费</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
           <t>zhipu</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>zhipu</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>ZhiPu</t>
         </is>
       </c>
     </row>
@@ -1441,32 +1001,37 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>GLM-4-Long</t>
+          <t>glm-4-long</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>glm-4-long</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>付费</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
           <t>zhipu</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>zhipu</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>ZhiPu</t>
+    </row>
+    <row r="24">
+      <c r="A24" t="b">
+        <v>1</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>DEEPSEEK</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>DeepSeek-V2.5</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>deepseek-chat</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>deepseek</t>
         </is>
       </c>
     </row>

--- a/data/models.xlsx
+++ b/data/models.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -616,22 +616,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>讯飞云</t>
+          <t>智谱AI</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>星火大模型</t>
+          <t>GLM</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Spark Lite</t>
+          <t>charglm-3</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>xunfei</t>
+          <t>zhipu</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Spark Pro</t>
+          <t>Spark Lite</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Spark Max</t>
+          <t>Spark Pro</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Spark Ultra</t>
+          <t>Spark Max</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -716,28 +716,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>通义星辰</t>
+          <t>讯飞云</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>星辰</t>
+          <t>星火大模型</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>xingchen-lite</t>
+          <t>Spark Ultra</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>xingchen</t>
+          <t>xunfei</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>xingchen-base</t>
+          <t>xingchen-lite</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -762,7 +762,7 @@
     </row>
     <row r="14">
       <c r="A14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>xingchen-max</t>
+          <t>xingchen-base</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -787,7 +787,7 @@
     </row>
     <row r="15">
       <c r="A15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>xingchen-plus</t>
+          <t>xingchen-max</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -812,26 +812,26 @@
     </row>
     <row r="16">
       <c r="A16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>腾讯云</t>
+          <t>通义星辰</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>混元大模型</t>
+          <t>星辰</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>hunyuan-turbo</t>
+          <t>xingchen-plus</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>tencent</t>
+          <t>xingchen</t>
         </is>
       </c>
     </row>
@@ -851,7 +851,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>hunyuan-pro</t>
+          <t>hunyuan-turbo</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -876,7 +876,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>hunyuan-standard</t>
+          <t>hunyuan-pro</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>hunyuan-role</t>
+          <t>hunyuan-standard</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>hunyuan-functioncall</t>
+          <t>hunyuan-role</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>hunyuan-lite</t>
+          <t>hunyuan-functioncall</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -962,32 +962,32 @@
     </row>
     <row r="22">
       <c r="A22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>商汤</t>
+          <t>腾讯云</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>日日新大模型</t>
+          <t>混元大模型</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SenseChat</t>
+          <t>hunyuan-lite</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>shangtang</t>
+          <t>tencent</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>SenseChat-128K</t>
+          <t>SenseChat</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1012,7 +1012,7 @@
     </row>
     <row r="24">
       <c r="A24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>SenseChat-32K</t>
+          <t>SenseChat-128K</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1037,7 +1037,7 @@
     </row>
     <row r="25">
       <c r="A25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SenseChat-5</t>
+          <t>SenseChat-32K</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1062,7 +1062,7 @@
     </row>
     <row r="26">
       <c r="A26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SenseChat-5-Cantonese</t>
+          <t>SenseChat-5</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1087,7 +1087,7 @@
     </row>
     <row r="27">
       <c r="A27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>SenseChat-Character</t>
+          <t>SenseChat-5-Cantonese</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1112,7 +1112,7 @@
     </row>
     <row r="28">
       <c r="A28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>SenseChat-Character-Pro</t>
+          <t>SenseChat-Character</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1137,7 +1137,7 @@
     </row>
     <row r="29">
       <c r="A29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>SenseChat-Turbo</t>
+          <t>SenseChat-Character-Pro</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1166,22 +1166,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>零一万物</t>
+          <t>商汤</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Yi大模型</t>
+          <t>日日新大模型</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>yi-large</t>
+          <t>SenseChat-Turbo</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>lingyi</t>
+          <t>shangtang</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>yi-medium</t>
+          <t>yi-large</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>yi-spark</t>
+          <t>yi-medium</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1241,22 +1241,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>火山引擎</t>
+          <t>零一万物</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>火山方舟</t>
+          <t>Yi大模型</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>doubao-pro-4k</t>
+          <t>yi-spark</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>arkengine</t>
+          <t>lingyi</t>
         </is>
       </c>
     </row>
@@ -1276,7 +1276,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>doubao-lite-4k</t>
+          <t>doubao-pro-4k</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>doubao-pro-32k</t>
+          <t>doubao-lite-4k</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>doubao-lite-32k</t>
+          <t>doubao-pro-32k</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>doubao-pro-128k</t>
+          <t>doubao-lite-32k</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>doubao-lite-128k</t>
+          <t>doubao-pro-128k</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1391,22 +1391,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>百度智能云</t>
+          <t>火山引擎</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>千帆大模型</t>
+          <t>火山方舟</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>ERNIE-Functions-8K</t>
+          <t>doubao-lite-128k</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>baidu</t>
+          <t>arkengine</t>
         </is>
       </c>
     </row>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>ERNIE-4.0-8K</t>
+          <t>ERNIE-Functions-8K</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>ERNIE-Character-8K</t>
+          <t>ERNIE-4.0-8K</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1476,7 +1476,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>ERNIE-Speed-128K</t>
+          <t>ERNIE-Character-8K</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1491,22 +1491,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>百川智能</t>
+          <t>百度智能云</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>baichuan</t>
+          <t>千帆大模型</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Baichuan4</t>
+          <t>ERNIE-Speed-128K</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>baichuan</t>
+          <t>baidu</t>
         </is>
       </c>
     </row>
@@ -1516,22 +1516,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>阿里云百炼</t>
+          <t>百川智能</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>通义千问</t>
+          <t>baichuan</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>qwen-max</t>
+          <t>Baichuan4</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>bailian</t>
+          <t>baichuan</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>qwen-plus</t>
+          <t>qwen-max</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>qwen-turbo</t>
+          <t>qwen-plus</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1591,22 +1591,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MoonshotAI</t>
+          <t>阿里云百炼</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>moonshot-v1</t>
+          <t>通义千问</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>moonshot-v1-8k</t>
+          <t>qwen-turbo</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>moonshot</t>
+          <t>bailian</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>moonshot-v1-32k</t>
+          <t>moonshot-v1-8k</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>moonshot-v1-128k</t>
+          <t>moonshot-v1-32k</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1666,22 +1666,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>MiniMax</t>
+          <t>MoonshotAI</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ChatCompletion</t>
+          <t>moonshot-v1</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>abab6.5t-chat</t>
+          <t>moonshot-v1-128k</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>minimax</t>
+          <t>moonshot</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>abab6.5g-chat</t>
+          <t>abab6.5t-chat</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>abab6.5s-chat</t>
+          <t>abab6.5g-chat</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1741,20 +1741,45 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
+          <t>MiniMax</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>ChatCompletion</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>abab6.5s-chat</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>minimax</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="b">
+        <v>0</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
           <t>DEEPSEEK</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>DeepSeek-V2.5</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>deepseek-chat</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>deepseek</t>
         </is>

--- a/data/models.xlsx
+++ b/data/models.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -462,7 +462,7 @@
     </row>
     <row r="2">
       <c r="A2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -512,7 +512,7 @@
     </row>
     <row r="4">
       <c r="A4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -737,7 +737,7 @@
     </row>
     <row r="13">
       <c r="A13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
     </row>
     <row r="14">
       <c r="A14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
     </row>
     <row r="15">
       <c r="A15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
     </row>
     <row r="16">
       <c r="A16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
     </row>
     <row r="34">
       <c r="A34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="36">
       <c r="A36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
     </row>
     <row r="38">
       <c r="A38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="44">
       <c r="A44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="45">
       <c r="A45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
     </row>
     <row r="54">
       <c r="A54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>

--- a/data/models.xlsx
+++ b/data/models.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>module</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="b">
@@ -484,6 +489,9 @@
           <t>zhipu</t>
         </is>
       </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="b">
@@ -509,10 +517,13 @@
           <t>zhipu</t>
         </is>
       </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -533,6 +544,9 @@
         <is>
           <t>zhipu</t>
         </is>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -559,6 +573,9 @@
           <t>zhipu</t>
         </is>
       </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="b">
@@ -584,6 +601,9 @@
           <t>zhipu</t>
         </is>
       </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="b">
@@ -609,6 +629,9 @@
           <t>zhipu</t>
         </is>
       </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="b">
@@ -634,6 +657,9 @@
           <t>zhipu</t>
         </is>
       </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="b">
@@ -659,6 +685,9 @@
           <t>xunfei</t>
         </is>
       </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="b">
@@ -684,6 +713,9 @@
           <t>xunfei</t>
         </is>
       </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="b">
@@ -709,6 +741,9 @@
           <t>xunfei</t>
         </is>
       </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="b">
@@ -734,6 +769,9 @@
           <t>xunfei</t>
         </is>
       </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="b">
@@ -759,6 +797,9 @@
           <t>xingchen</t>
         </is>
       </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="b">
@@ -784,6 +825,9 @@
           <t>xingchen</t>
         </is>
       </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="b">
@@ -809,6 +853,9 @@
           <t>xingchen</t>
         </is>
       </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="b">
@@ -834,6 +881,9 @@
           <t>xingchen</t>
         </is>
       </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="b">
@@ -859,6 +909,9 @@
           <t>tencent</t>
         </is>
       </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="b">
@@ -884,6 +937,9 @@
           <t>tencent</t>
         </is>
       </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="b">
@@ -909,6 +965,9 @@
           <t>tencent</t>
         </is>
       </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="b">
@@ -934,6 +993,9 @@
           <t>tencent</t>
         </is>
       </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="b">
@@ -959,6 +1021,9 @@
           <t>tencent</t>
         </is>
       </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="b">
@@ -984,6 +1049,9 @@
           <t>tencent</t>
         </is>
       </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="b">
@@ -1009,6 +1077,9 @@
           <t>shangtang</t>
         </is>
       </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="b">
@@ -1034,6 +1105,9 @@
           <t>shangtang</t>
         </is>
       </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="b">
@@ -1059,6 +1133,9 @@
           <t>shangtang</t>
         </is>
       </c>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="b">
@@ -1084,6 +1161,9 @@
           <t>shangtang</t>
         </is>
       </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="b">
@@ -1109,6 +1189,9 @@
           <t>shangtang</t>
         </is>
       </c>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="b">
@@ -1134,6 +1217,9 @@
           <t>shangtang</t>
         </is>
       </c>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="b">
@@ -1159,6 +1245,9 @@
           <t>shangtang</t>
         </is>
       </c>
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="b">
@@ -1184,6 +1273,9 @@
           <t>shangtang</t>
         </is>
       </c>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="b">
@@ -1209,6 +1301,9 @@
           <t>lingyi</t>
         </is>
       </c>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="b">
@@ -1234,6 +1329,9 @@
           <t>lingyi</t>
         </is>
       </c>
+      <c r="F32" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="b">
@@ -1259,10 +1357,13 @@
           <t>lingyi</t>
         </is>
       </c>
+      <c r="F33" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1283,6 +1384,9 @@
         <is>
           <t>arkengine</t>
         </is>
+      </c>
+      <c r="F34" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1309,10 +1413,13 @@
           <t>arkengine</t>
         </is>
       </c>
+      <c r="F35" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1333,6 +1440,9 @@
         <is>
           <t>arkengine</t>
         </is>
+      </c>
+      <c r="F36" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1359,10 +1469,13 @@
           <t>arkengine</t>
         </is>
       </c>
+      <c r="F37" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1383,6 +1496,9 @@
         <is>
           <t>arkengine</t>
         </is>
+      </c>
+      <c r="F38" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1409,6 +1525,9 @@
           <t>arkengine</t>
         </is>
       </c>
+      <c r="F39" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="b">
@@ -1434,6 +1553,9 @@
           <t>baidu</t>
         </is>
       </c>
+      <c r="F40" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="b">
@@ -1459,6 +1581,9 @@
           <t>baidu</t>
         </is>
       </c>
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="b">
@@ -1484,6 +1609,9 @@
           <t>baidu</t>
         </is>
       </c>
+      <c r="F42" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="b">
@@ -1509,10 +1637,13 @@
           <t>baidu</t>
         </is>
       </c>
+      <c r="F43" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1533,11 +1664,14 @@
         <is>
           <t>baichuan</t>
         </is>
+      </c>
+      <c r="F44" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1558,6 +1692,9 @@
         <is>
           <t>bailian</t>
         </is>
+      </c>
+      <c r="F45" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1584,6 +1721,9 @@
           <t>bailian</t>
         </is>
       </c>
+      <c r="F46" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="b">
@@ -1609,6 +1749,9 @@
           <t>bailian</t>
         </is>
       </c>
+      <c r="F47" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="b">
@@ -1634,6 +1777,9 @@
           <t>moonshot</t>
         </is>
       </c>
+      <c r="F48" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="b">
@@ -1659,6 +1805,9 @@
           <t>moonshot</t>
         </is>
       </c>
+      <c r="F49" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="b">
@@ -1684,6 +1833,9 @@
           <t>moonshot</t>
         </is>
       </c>
+      <c r="F50" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="b">
@@ -1709,6 +1861,9 @@
           <t>minimax</t>
         </is>
       </c>
+      <c r="F51" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="b">
@@ -1734,6 +1889,9 @@
           <t>minimax</t>
         </is>
       </c>
+      <c r="F52" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="b">
@@ -1759,10 +1917,13 @@
           <t>minimax</t>
         </is>
       </c>
+      <c r="F53" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1783,6 +1944,9 @@
         <is>
           <t>deepseek</t>
         </is>
+      </c>
+      <c r="F54" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
